--- a/12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS/FORMATO 5B IES JOSE MARIA ARGUEDAS CHUQUIBAMBILLA - MAMARA.xlsx
+++ b/12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS/FORMATO 5B IES JOSE MARIA ARGUEDAS CHUQUIBAMBILLA - MAMARA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JR2020\IOARR 2020\IOARR 2020 -JUNIO CONCLUIDOS\2. IOARR  IES JOSE MARIA ARGUEDAS - CHUQUIBAMBILLA\12. FORMATO N°05 REGISTRO AGREGADO DE IDEAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018\Desktop\TURISMO CASA\IOARR0002-JM-ARGUEDAS\12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F599C72-753D-4E4F-A28C-442E0C9A3919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1044" windowWidth="13440" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1050" windowWidth="13440" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="F05 IDEA IOARR" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'F05 IDEA IOARR'!$A$1:$M$104</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -306,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -723,6 +722,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,17 +838,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -940,23 +939,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -992,23 +974,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1184,89 +1149,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A85" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="49" customWidth="1"/>
     <col min="2" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" customWidth="1"/>
-    <col min="8" max="12" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="11.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="79"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="81"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1280,7 +1245,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1290,19 +1255,19 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>65</v>
@@ -1318,7 +1283,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1332,25 +1297,25 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
@@ -1364,79 +1329,79 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="67"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1450,7 +1415,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -1464,25 +1429,25 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6"/>
@@ -1496,25 +1461,25 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="84" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
@@ -1526,25 +1491,25 @@
       <c r="K21" s="17"/>
       <c r="L21" s="18"/>
     </row>
-    <row r="22" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
       <c r="G22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="91"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="16" t="s">
         <v>53</v>
@@ -1558,7 +1523,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1583,11 +1548,11 @@
       <c r="K24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="92">
+      <c r="L24" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
@@ -1599,7 +1564,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="26" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="14" t="s">
         <v>58</v>
@@ -1609,7 +1574,7 @@
       <c r="G26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="91">
+      <c r="H26" s="54">
         <v>0.2</v>
       </c>
       <c r="I26" s="24"/>
@@ -1617,7 +1582,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="16" t="s">
         <v>59</v>
@@ -1631,7 +1596,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -1645,25 +1610,25 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
@@ -1677,79 +1642,79 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="28"/>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
-    </row>
-    <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
+    </row>
+    <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="28"/>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
-    </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+    </row>
+    <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="28"/>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="28"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -1763,7 +1728,7 @@
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -1777,25 +1742,25 @@
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -1809,79 +1774,79 @@
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="67"/>
-    </row>
-    <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
+    </row>
+    <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="67"/>
-    </row>
-    <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="69"/>
+    </row>
+    <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="28"/>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="67"/>
-    </row>
-    <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
+    </row>
+    <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="28"/>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="67"/>
-    </row>
-    <row r="43" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="69"/>
+    </row>
+    <row r="43" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -1895,7 +1860,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -1909,25 +1874,25 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
     </row>
-    <row r="45" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>6</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-    </row>
-    <row r="46" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+    </row>
+    <row r="46" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
@@ -1941,61 +1906,61 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="67"/>
-    </row>
-    <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="69"/>
+    </row>
+    <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="28"/>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="67"/>
-    </row>
-    <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
+    </row>
+    <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="28"/>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="67"/>
-    </row>
-    <row r="50" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+    </row>
+    <row r="50" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
@@ -2009,7 +1974,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="30"/>
       <c r="C51" s="6"/>
@@ -2023,25 +1988,25 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>7</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-    </row>
-    <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+    </row>
+    <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="26"/>
       <c r="C53" s="6"/>
@@ -2055,7 +2020,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="26" t="s">
         <v>43</v>
@@ -2063,15 +2028,15 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-    </row>
-    <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+    </row>
+    <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="32" t="s">
         <v>34</v>
@@ -2087,7 +2052,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="33" t="s">
         <v>88</v>
@@ -2103,7 +2068,7 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="26"/>
       <c r="C57" s="27"/>
@@ -2117,7 +2082,7 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="26" t="s">
         <v>44</v>
@@ -2133,7 +2098,7 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="35" t="s">
         <v>45</v>
@@ -2153,7 +2118,7 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="50" t="s">
         <v>78</v>
@@ -2173,7 +2138,7 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="26"/>
       <c r="C61" s="27"/>
@@ -2187,7 +2152,7 @@
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -2200,25 +2165,25 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>8</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-    </row>
-    <row r="64" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+    </row>
+    <row r="64" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -2231,87 +2196,87 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" s="36" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="36" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="57" t="s">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-    </row>
-    <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="61"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+    </row>
+    <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="51">
-        <v>342113.99</v>
+        <v>380539.3</v>
       </c>
       <c r="F66" s="28"/>
-      <c r="G66" s="72">
+      <c r="G66" s="74">
         <v>699</v>
       </c>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="73"/>
-    </row>
-    <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+    </row>
+    <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="33"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-    </row>
-    <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+    </row>
+    <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="33"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-    </row>
-    <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+    </row>
+    <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="33"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-    </row>
-    <row r="70" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+    </row>
+    <row r="70" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -2324,25 +2289,25 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>9</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-    </row>
-    <row r="72" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+    </row>
+    <row r="72" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="37"/>
       <c r="C72" s="31"/>
@@ -2355,35 +2320,35 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" s="29" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="29" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="57" t="s">
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-    </row>
-    <row r="74" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="61"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+    </row>
+    <row r="74" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="57" t="s">
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="59"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="38"/>
       <c r="H74" s="39"/>
       <c r="I74" s="39"/>
@@ -2391,73 +2356,73 @@
       <c r="K74" s="39"/>
       <c r="L74" s="39"/>
     </row>
-    <row r="75" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
       <c r="E75" s="33"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="71">
+      <c r="G75" s="73">
         <v>699</v>
       </c>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-    </row>
-    <row r="76" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+    </row>
+    <row r="76" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
       <c r="E76" s="33"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="73"/>
-      <c r="L76" s="73"/>
-    </row>
-    <row r="77" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="73"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+    </row>
+    <row r="77" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
       <c r="E77" s="33"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="73"/>
-      <c r="L77" s="73"/>
-    </row>
-    <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="73"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+    </row>
+    <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
       <c r="E78" s="33"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="73"/>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
-    </row>
-    <row r="79" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="73"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+    </row>
+    <row r="79" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
@@ -2470,7 +2435,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
@@ -2483,7 +2448,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>10</v>
       </c>
@@ -2500,7 +2465,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
@@ -2513,41 +2478,41 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:14" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="57" t="s">
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="59"/>
+      <c r="F83" s="61"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="41" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="59"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="33" t="s">
         <v>37</v>
@@ -2562,7 +2527,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="44" t="s">
         <v>38</v>
@@ -2577,7 +2542,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="33" t="s">
         <v>39</v>
@@ -2592,7 +2557,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="45" t="s">
         <v>40</v>
@@ -2607,7 +2572,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -2620,27 +2585,27 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-    </row>
-    <row r="91" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63"/>
+    </row>
+    <row r="91" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="25"/>
       <c r="C91" s="31"/>
@@ -2653,39 +2618,39 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:14" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="47"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="80" t="s">
+      <c r="E92" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
-    </row>
-    <row r="93" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="82"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="82"/>
+      <c r="I92" s="82"/>
+      <c r="J92" s="82"/>
+      <c r="K92" s="82"/>
+      <c r="L92" s="82"/>
+    </row>
+    <row r="93" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="25"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="80"/>
-      <c r="L93" s="80"/>
-    </row>
-    <row r="94" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="82"/>
+      <c r="L93" s="82"/>
+    </row>
+    <row r="94" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="25"/>
       <c r="C94" s="31"/>
@@ -2698,7 +2663,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:14" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="25" t="s">
         <v>17</v>
@@ -2717,7 +2682,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="25"/>
       <c r="C96" s="31"/>
@@ -2731,29 +2696,29 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="70"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="70"/>
-      <c r="O97" s="70"/>
-      <c r="P97" s="70"/>
-    </row>
-    <row r="98" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="72"/>
+      <c r="O97" s="72"/>
+      <c r="P97" s="72"/>
+    </row>
+    <row r="98" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -2764,7 +2729,7 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="26" t="s">
         <v>30</v>
@@ -2777,7 +2742,7 @@
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -2788,7 +2753,7 @@
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="26" t="s">
         <v>31</v>
@@ -2801,7 +2766,7 @@
       <c r="H101" s="26"/>
       <c r="I101" s="26"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="26" t="s">
         <v>67</v>
@@ -2814,7 +2779,7 @@
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>

--- a/12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS/FORMATO 5B IES JOSE MARIA ARGUEDAS CHUQUIBAMBILLA - MAMARA.xlsx
+++ b/12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS/FORMATO 5B IES JOSE MARIA ARGUEDAS CHUQUIBAMBILLA - MAMARA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018\Desktop\TURISMO CASA\IOARR0002-JM-ARGUEDAS\12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI_SEC\Documents\GitHub\IOARR0002-JM-ARGUEDAS\12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -728,6 +728,96 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,107 +827,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A85" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:L71"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A77" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -1170,66 +1170,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1245,7 +1245,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1255,15 +1255,15 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
     </row>
@@ -1301,19 +1301,19 @@
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -1335,17 +1335,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1353,17 +1353,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -1371,17 +1371,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -1389,17 +1389,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -1433,19 +1433,19 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -1463,21 +1463,21 @@
     </row>
     <row r="20" spans="1:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="86" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -1493,21 +1493,21 @@
     </row>
     <row r="22" spans="1:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
       <c r="G22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="91"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -1614,19 +1614,19 @@
       <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -1648,17 +1648,17 @@
         <v>4</v>
       </c>
       <c r="C31" s="28"/>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
@@ -1666,17 +1666,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="28"/>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -1684,17 +1684,17 @@
         <v>6</v>
       </c>
       <c r="C33" s="28"/>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="69"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -1702,17 +1702,17 @@
         <v>7</v>
       </c>
       <c r="C34" s="28"/>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="69"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
@@ -1746,19 +1746,19 @@
       <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -1780,17 +1780,17 @@
         <v>4</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
@@ -1798,17 +1798,17 @@
         <v>5</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="69"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="60"/>
     </row>
     <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1816,17 +1816,17 @@
         <v>8</v>
       </c>
       <c r="C41" s="28"/>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="69"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
     </row>
     <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
@@ -1834,17 +1834,17 @@
         <v>9</v>
       </c>
       <c r="C42" s="28"/>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="69"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -1878,19 +1878,19 @@
       <c r="A45" s="4">
         <v>6</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
     </row>
     <row r="46" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
@@ -1912,17 +1912,17 @@
         <v>4</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="67" t="s">
+      <c r="D47" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="69"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="60"/>
     </row>
     <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
@@ -1930,17 +1930,17 @@
         <v>5</v>
       </c>
       <c r="C48" s="28"/>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
     </row>
     <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -1948,17 +1948,17 @@
         <v>3</v>
       </c>
       <c r="C49" s="28"/>
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
@@ -1992,19 +1992,19 @@
       <c r="A52" s="4">
         <v>7</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
     </row>
     <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
@@ -2028,13 +2028,13 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
     </row>
     <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
@@ -2169,19 +2169,19 @@
       <c r="A63" s="4">
         <v>8</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
     </row>
     <row r="64" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
@@ -2198,83 +2198,83 @@
     </row>
     <row r="65" spans="1:12" s="36" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="59" t="s">
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="61"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
     </row>
     <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="51">
         <v>380539.3</v>
       </c>
       <c r="F66" s="28"/>
-      <c r="G66" s="74">
+      <c r="G66" s="62">
         <v>699</v>
       </c>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
     </row>
     <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="33"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
     </row>
     <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="33"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
     </row>
     <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="33"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
     </row>
     <row r="70" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
@@ -2293,19 +2293,19 @@
       <c r="A71" s="4">
         <v>9</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
     </row>
     <row r="72" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
@@ -2322,33 +2322,33 @@
     </row>
     <row r="73" spans="1:12" s="29" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="59" t="s">
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="61"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
     </row>
     <row r="74" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="59" t="s">
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="61"/>
+      <c r="F74" s="85"/>
       <c r="G74" s="38"/>
       <c r="H74" s="39"/>
       <c r="I74" s="39"/>
@@ -2358,69 +2358,69 @@
     </row>
     <row r="75" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="33"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="73">
+      <c r="G75" s="83">
         <v>699</v>
       </c>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
     </row>
     <row r="76" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="33"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
     </row>
     <row r="77" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="33"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
     </row>
     <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="33"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
     </row>
     <row r="79" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
@@ -2480,15 +2480,15 @@
     </row>
     <row r="83" spans="1:14" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59" t="s">
+      <c r="C83" s="87"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="61"/>
+      <c r="F83" s="85"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="J83" s="6"/>
@@ -2502,10 +2502,10 @@
       </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
-      <c r="E84" s="59" t="s">
+      <c r="E84" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="61"/>
+      <c r="F84" s="85"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="J84" s="6"/>
@@ -2589,21 +2589,21 @@
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="63"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
     </row>
     <row r="91" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
@@ -2625,30 +2625,30 @@
       </c>
       <c r="C92" s="47"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="82" t="s">
+      <c r="E92" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82"/>
-      <c r="I92" s="82"/>
-      <c r="J92" s="82"/>
-      <c r="K92" s="82"/>
-      <c r="L92" s="82"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
     </row>
     <row r="93" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="25"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="82"/>
-      <c r="K93" s="82"/>
-      <c r="L93" s="82"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
     </row>
     <row r="94" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
@@ -2700,23 +2700,23 @@
       <c r="A97" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="72" t="s">
+      <c r="B97" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="72"/>
-      <c r="K97" s="72"/>
-      <c r="L97" s="72"/>
-      <c r="M97" s="72"/>
-      <c r="N97" s="72"/>
-      <c r="O97" s="72"/>
-      <c r="P97" s="72"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="82"/>
+      <c r="H97" s="82"/>
+      <c r="I97" s="82"/>
+      <c r="J97" s="82"/>
+      <c r="K97" s="82"/>
+      <c r="L97" s="82"/>
+      <c r="M97" s="82"/>
+      <c r="N97" s="82"/>
+      <c r="O97" s="82"/>
+      <c r="P97" s="82"/>
     </row>
     <row r="98" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
@@ -2792,6 +2792,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="B97:P97"/>
+    <mergeCell ref="B90:N90"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L4"/>
+    <mergeCell ref="E92:L93"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D34:L34"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B45:L45"/>
     <mergeCell ref="B37:L37"/>
@@ -2808,62 +2864,6 @@
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B63:L63"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L4"/>
-    <mergeCell ref="E92:L93"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B97:P97"/>
-    <mergeCell ref="B90:N90"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="D47:L47"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS/FORMATO 5B IES JOSE MARIA ARGUEDAS CHUQUIBAMBILLA - MAMARA.xlsx
+++ b/12.0 FORMATO N°05 REGISTRO AGREGADO DE IDEAS/FORMATO 5B IES JOSE MARIA ARGUEDAS CHUQUIBAMBILLA - MAMARA.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'F05 IDEA IOARR'!$A$1:$M$104</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -565,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -662,9 +662,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,11 +725,38 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -743,101 +767,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1152,13 +1146,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A77" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="48" customWidth="1"/>
     <col min="2" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
@@ -1170,66 +1164,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1255,17 +1249,17 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -1301,19 +1295,19 @@
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -1335,17 +1329,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1353,17 +1347,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -1371,17 +1365,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -1389,17 +1383,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -1433,19 +1427,19 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -1463,21 +1457,21 @@
     </row>
     <row r="20" spans="1:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="63" t="s">
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -1493,21 +1487,21 @@
     </row>
     <row r="22" spans="1:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
       <c r="G22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -1548,7 +1542,7 @@
       <c r="K24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="54">
         <v>1</v>
       </c>
     </row>
@@ -1574,7 +1568,7 @@
       <c r="G26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="53">
         <v>0.2</v>
       </c>
       <c r="I26" s="24"/>
@@ -1614,19 +1608,19 @@
       <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -1648,17 +1642,17 @@
         <v>4</v>
       </c>
       <c r="C31" s="28"/>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="68"/>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
@@ -1666,17 +1660,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="28"/>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -1684,17 +1678,17 @@
         <v>6</v>
       </c>
       <c r="C33" s="28"/>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -1702,17 +1696,17 @@
         <v>7</v>
       </c>
       <c r="C34" s="28"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
@@ -1746,19 +1740,19 @@
       <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -1780,17 +1774,17 @@
         <v>4</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="68"/>
     </row>
     <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
@@ -1798,17 +1792,17 @@
         <v>5</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
     </row>
     <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1816,17 +1810,17 @@
         <v>8</v>
       </c>
       <c r="C41" s="28"/>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="60"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="68"/>
     </row>
     <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
@@ -1834,17 +1828,17 @@
         <v>9</v>
       </c>
       <c r="C42" s="28"/>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="60"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="68"/>
     </row>
     <row r="43" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -1878,19 +1872,19 @@
       <c r="A45" s="4">
         <v>6</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
     </row>
     <row r="46" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
@@ -1912,17 +1906,17 @@
         <v>4</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
@@ -1930,17 +1924,17 @@
         <v>5</v>
       </c>
       <c r="C48" s="28"/>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="60"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="68"/>
     </row>
     <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -1948,17 +1942,17 @@
         <v>3</v>
       </c>
       <c r="C49" s="28"/>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="60"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
@@ -1992,19 +1986,19 @@
       <c r="A52" s="4">
         <v>7</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
     </row>
     <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
@@ -2028,13 +2022,13 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
     </row>
     <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
@@ -2054,14 +2048,14 @@
     </row>
     <row r="56" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -2100,13 +2094,13 @@
     </row>
     <row r="59" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E59" s="27"/>
@@ -2120,13 +2114,13 @@
     </row>
     <row r="60" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="49" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="27"/>
@@ -2169,19 +2163,19 @@
       <c r="A63" s="4">
         <v>8</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
     </row>
     <row r="64" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
@@ -2196,85 +2190,85 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" s="36" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="84" t="s">
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="85"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
     </row>
     <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="51">
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="50">
         <v>380539.3</v>
       </c>
       <c r="F66" s="28"/>
-      <c r="G66" s="62">
+      <c r="G66" s="73">
         <v>699</v>
       </c>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
     </row>
     <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="33"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
     </row>
     <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="33"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
     </row>
     <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="33"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
     </row>
     <row r="70" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
@@ -2293,23 +2287,23 @@
       <c r="A71" s="4">
         <v>9</v>
       </c>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
     </row>
     <row r="72" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
@@ -2322,105 +2316,105 @@
     </row>
     <row r="73" spans="1:12" s="29" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="84" t="s">
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="85"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
     </row>
     <row r="74" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="84" t="s">
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="85"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
     </row>
     <row r="75" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="33"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="83">
+      <c r="G75" s="72">
         <v>699</v>
       </c>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
     </row>
     <row r="76" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="33"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
     </row>
     <row r="77" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
       <c r="E77" s="33"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
     </row>
     <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="33"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="79"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
     </row>
     <row r="79" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
@@ -2452,7 +2446,7 @@
       <c r="A81" s="4">
         <v>10</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="31"/>
@@ -2480,15 +2474,15 @@
     </row>
     <row r="83" spans="1:14" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="84" t="s">
+      <c r="C83" s="56"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="85"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="J83" s="6"/>
@@ -2497,15 +2491,15 @@
     </row>
     <row r="84" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="84" t="s">
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="85"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="J84" s="6"/>
@@ -2517,8 +2511,8 @@
       <c r="B85" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
       <c r="E85" s="33"/>
       <c r="F85" s="28"/>
       <c r="G85" s="12"/>
@@ -2529,7 +2523,7 @@
     </row>
     <row r="86" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C86" s="12"/>
@@ -2547,8 +2541,8 @@
       <c r="B87" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
       <c r="E87" s="33"/>
       <c r="F87" s="28"/>
       <c r="G87" s="12"/>
@@ -2559,11 +2553,11 @@
     </row>
     <row r="88" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="33"/>
       <c r="F88" s="28"/>
       <c r="G88" s="12"/>
@@ -2589,21 +2583,21 @@
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
     </row>
     <row r="91" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
@@ -2623,32 +2617,32 @@
       <c r="B92" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="47"/>
+      <c r="C92" s="46"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="75" t="s">
+      <c r="E92" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="75"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
-      <c r="K92" s="75"/>
-      <c r="L92" s="75"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
     </row>
     <row r="93" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="25"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="75"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="81"/>
+      <c r="K93" s="81"/>
+      <c r="L93" s="81"/>
     </row>
     <row r="94" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
@@ -2668,7 +2662,7 @@
       <c r="B95" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="51" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="31"/>
@@ -2697,26 +2691,26 @@
       <c r="L96" s="6"/>
     </row>
     <row r="97" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="82"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="82"/>
-      <c r="H97" s="82"/>
-      <c r="I97" s="82"/>
-      <c r="J97" s="82"/>
-      <c r="K97" s="82"/>
-      <c r="L97" s="82"/>
-      <c r="M97" s="82"/>
-      <c r="N97" s="82"/>
-      <c r="O97" s="82"/>
-      <c r="P97" s="82"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
     </row>
     <row r="98" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
@@ -2791,7 +2785,64 @@
       <c r="I103" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="73">
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L4"/>
+    <mergeCell ref="E92:L93"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B97:P97"/>
+    <mergeCell ref="B90:N90"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="B74:D74"/>
@@ -2808,67 +2859,11 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="D47:L47"/>
-    <mergeCell ref="B97:P97"/>
-    <mergeCell ref="B90:N90"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L4"/>
-    <mergeCell ref="E92:L93"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="F54:L54"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B63:L63"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="36" max="12" man="1"/>
